--- a/RelatorioDiasSemanaComMaisConversoesAno_2023.xlsx
+++ b/RelatorioDiasSemanaComMaisConversoesAno_2023.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Dias da semana com mais convers" r:id="rId3" sheetId="1"/>
+    <sheet name="Relatório" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/RelatorioDiasSemanaComMaisConversoesAno_2023.xlsx
+++ b/RelatorioDiasSemanaComMaisConversoesAno_2023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Data</t>
   </si>
@@ -65,13 +65,19 @@
     <t>8</t>
   </si>
   <si>
+    <t>23/08/2023</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>09/10/2023</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>23/08/2023</t>
+    <t>11/09/2023</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>17/11/2023</t>
@@ -80,12 +86,6 @@
     <t>Sexta-feira</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>11/09/2023</t>
-  </si>
-  <si>
     <t>22/09/2023</t>
   </si>
   <si>
@@ -95,31 +95,34 @@
     <t>5</t>
   </si>
   <si>
+    <t>05/10/2023</t>
+  </si>
+  <si>
     <t>24/10/2023</t>
   </si>
   <si>
     <t>31/10/2023</t>
   </si>
   <si>
-    <t>05/10/2023</t>
-  </si>
-  <si>
     <t>20/07/2023</t>
   </si>
   <si>
-    <t>03/11/2023</t>
+    <t>05/08/2023</t>
+  </si>
+  <si>
+    <t>Sabado</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>07/11/2023</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
+  </si>
+  <si>
     <t>16/08/2023</t>
-  </si>
-  <si>
-    <t>27/09/2023</t>
-  </si>
-  <si>
-    <t>07/11/2023</t>
   </si>
 </sst>
 </file>
@@ -274,7 +277,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -285,7 +288,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -296,21 +299,21 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -318,10 +321,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -340,7 +343,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -362,7 +365,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -384,43 +387,43 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/RelatorioDiasSemanaComMaisConversoesAno_2023.xlsx
+++ b/RelatorioDiasSemanaComMaisConversoesAno_2023.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Data</t>
   </si>
@@ -23,106 +23,97 @@
     <t>Total de Conversões</t>
   </si>
   <si>
+    <t>05/12/2023</t>
+  </si>
+  <si>
+    <t>Terça-feira</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12/12/2023</t>
+  </si>
+  <si>
+    <t>26/12/2023</t>
+  </si>
+  <si>
+    <t>30/11/2023</t>
+  </si>
+  <si>
+    <t>Quinta-feira</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>Sexta-feira</t>
+  </si>
+  <si>
     <t>16/11/2023</t>
   </si>
   <si>
-    <t>Quinta-feira</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>Segunda-feira</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>22/11/2023</t>
   </si>
   <si>
     <t>Quarta-feira</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>06/11/2023</t>
-  </si>
-  <si>
-    <t>Segunda-feira</t>
+    <t>07/12/2023</t>
+  </si>
+  <si>
+    <t>25/09/2023</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>13/11/2023</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>25/09/2023</t>
+    <t>29/11/2023</t>
+  </si>
+  <si>
+    <t>06/12/2023</t>
+  </si>
+  <si>
+    <t>13/12/2023</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
   </si>
   <si>
     <t>21/11/2023</t>
   </si>
   <si>
-    <t>Terça-feira</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>23/08/2023</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>09/10/2023</t>
-  </si>
-  <si>
-    <t>11/09/2023</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>17/11/2023</t>
-  </si>
-  <si>
-    <t>Sexta-feira</t>
-  </si>
-  <si>
-    <t>22/09/2023</t>
-  </si>
-  <si>
-    <t>23/11/2023</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>05/10/2023</t>
-  </si>
-  <si>
-    <t>24/10/2023</t>
-  </si>
-  <si>
-    <t>31/10/2023</t>
-  </si>
-  <si>
-    <t>20/07/2023</t>
-  </si>
-  <si>
-    <t>05/08/2023</t>
-  </si>
-  <si>
-    <t>Sabado</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>07/11/2023</t>
-  </si>
-  <si>
-    <t>13/09/2023</t>
-  </si>
-  <si>
-    <t>16/08/2023</t>
+    <t>28/11/2023</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
   </si>
 </sst>
 </file>
@@ -222,208 +213,208 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
